--- a/va_facility_data_2025-02-20/Boca Raton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Boca%20Raton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Boca Raton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Boca%20Raton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R01b6cee3b0aa47cc9efafa08186b557b"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcdf8a49ace8b4f3a8dbb469eee219b0f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1bd0a9dcb32b4c2c89d5641b7b5f8cde"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd4df4568d15841d1b829140107b4aab5"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1a7277e866f34528817ba3a3cde3b713"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R3b2d26e610c045f3942f139a989a528c"/>
   </x:sheets>
 </x:workbook>
 </file>
